--- a/파이썬으로 데이터 주무르기/data/05. draw_korea_raw.xlsx
+++ b/파이썬으로 데이터 주무르기/data/05. draw_korea_raw.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PinkWink\Documents\FC\03th\drive-download-20170425T231200Z-001\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Documents\DataScience\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1515261B-49B2-4C1E-A596-ECB7111FC498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15900" yWindow="2835" windowWidth="22500" windowHeight="20340" tabRatio="500"/>
+    <workbookView xWindow="10710" yWindow="420" windowWidth="15330" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
   <si>
     <t>강릉</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,10 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인천 남구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인천 남동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -914,18 +911,6 @@
   </si>
   <si>
     <t>안양 동안</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부천 원미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부천 소사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부천 오정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1106,12 +1091,48 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>부천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미추홀</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1150,6 +1171,26 @@
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -1239,7 +1280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1290,6 +1331,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1571,11 +1618,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -1642,7 +1689,7 @@
         <v>4</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M2" s="3"/>
     </row>
@@ -1660,7 +1707,7 @@
         <v>22</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>8</v>
@@ -1678,10 +1725,10 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="D4" s="6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>19</v>
@@ -1690,7 +1737,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>14</v>
@@ -1706,11 +1753,8 @@
     </row>
     <row r="5" spans="1:14" ht="35.1" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="C5" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>46</v>
@@ -1725,10 +1769,10 @@
         <v>17</v>
       </c>
       <c r="I5" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>9</v>
@@ -1742,29 +1786,26 @@
     <row r="6" spans="1:14" ht="35.1" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="6" t="s">
-        <v>223</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>12</v>
@@ -1780,28 +1821,28 @@
         <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>222</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>7</v>
@@ -1816,35 +1857,35 @@
       <c r="B8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>224</v>
+      <c r="C8" s="18" t="s">
+        <v>248</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N8" s="3"/>
     </row>
@@ -1857,31 +1898,31 @@
         <v>47</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="35.1" customHeight="1">
@@ -1891,34 +1932,34 @@
         <v>48</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="35.1" customHeight="1">
@@ -1926,76 +1967,76 @@
       <c r="B11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>49</v>
+      <c r="C11" s="19" t="s">
+        <v>249</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="35.1" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I12" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="K12" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="J12" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>172</v>
-      </c>
       <c r="L12" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="35.1" customHeight="1">
@@ -2003,79 +2044,79 @@
         <v>33</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="M13" s="11" t="s">
         <v>236</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="35.1" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="D14" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="35.1" customHeight="1">
@@ -2084,111 +2125,111 @@
         <v>34</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I15" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>143</v>
-      </c>
       <c r="K15" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="35.1" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J16" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="K16" s="9" t="s">
-        <v>188</v>
-      </c>
       <c r="L16" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="35.1" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G17" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>130</v>
-      </c>
       <c r="I17" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K17" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="L17" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="L17" s="12" t="s">
-        <v>198</v>
-      </c>
       <c r="M17" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N17" s="3"/>
     </row>
@@ -2196,37 +2237,37 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N18" s="3"/>
     </row>
@@ -2234,37 +2275,37 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N19" s="3"/>
     </row>
@@ -2274,34 +2315,34 @@
         <v>35</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K20" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="L20" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="N20" s="3"/>
     </row>
@@ -2311,34 +2352,34 @@
         <v>36</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J21" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="K21" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="L21" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N21" s="3"/>
     </row>
@@ -2348,34 +2389,34 @@
         <v>37</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G22" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="I22" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>246</v>
-      </c>
       <c r="J22" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N22" s="3"/>
     </row>
@@ -2387,25 +2428,25 @@
         <v>38</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -2420,25 +2461,25 @@
         <v>39</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -2454,13 +2495,13 @@
         <v>40</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -2480,10 +2521,10 @@
         <v>41</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -2499,12 +2540,12 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -2521,7 +2562,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="F28" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
